--- a/src/sample/Data.xlsx
+++ b/src/sample/Data.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Response</t>
   </si>
   <si>
     <t>Stimulus</t>
+  </si>
+  <si>
+    <t>Speaker No.</t>
   </si>
 </sst>
 </file>
@@ -353,80 +356,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B12">
         <v>90</v>
       </c>
     </row>

--- a/src/sample/Data.xlsx
+++ b/src/sample/Data.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView windowHeight="8010" windowWidth="14810" xWindow="240" yWindow="110"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Response</t>
   </si>
@@ -26,11 +26,21 @@
   <si>
     <t>Speaker No.</t>
   </si>
+  <si>
+    <t>DOE=</t>
+  </si>
+  <si>
+    <t>DOE PER  SPEAKER</t>
+  </si>
+  <si>
+    <t>DOE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -58,16 +68,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -76,10 +86,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -235,7 +245,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -244,13 +254,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -260,7 +270,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -269,7 +279,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -278,7 +288,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -288,12 +298,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -324,7 +334,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -343,7 +353,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -356,15 +366,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D17" sqref="D1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="11.08984375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="11.81640625" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -385,6 +396,12 @@
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="C2" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
@@ -393,6 +410,15 @@
       <c r="B3">
         <v>45</v>
       </c>
+      <c r="C3" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
@@ -401,6 +427,15 @@
       <c r="B4">
         <v>90</v>
       </c>
+      <c r="C4" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>81.40806303599618</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
@@ -409,6 +444,15 @@
       <c r="B5">
         <v>180</v>
       </c>
+      <c r="C5" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>141.00290132411524</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
@@ -417,6 +461,15 @@
       <c r="B6">
         <v>225</v>
       </c>
+      <c r="C6" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>182.03396286507538</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
@@ -425,6 +478,15 @@
       <c r="B7">
         <v>270</v>
       </c>
+      <c r="C7" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>215.38548950871572</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
@@ -433,6 +495,15 @@
       <c r="B8">
         <v>315</v>
       </c>
+      <c r="C8" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>230.25677366405927</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
@@ -441,6 +512,15 @@
       <c r="B9">
         <v>45</v>
       </c>
+      <c r="C9" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>257.43489909630995</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
@@ -449,6 +529,15 @@
       <c r="B10">
         <v>270</v>
       </c>
+      <c r="C10" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>270.0</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
@@ -457,6 +546,15 @@
       <c r="B11">
         <v>180</v>
       </c>
+      <c r="C11" t="n">
+        <v>270.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>282.0058026482305</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
@@ -465,9 +563,32 @@
       <c r="B12">
         <v>90</v>
       </c>
+      <c r="C12" t="n">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>105.86941642104831</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -479,7 +600,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -491,6 +612,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>